--- a/output.xlsx
+++ b/output.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjrti\PycharmProjects\StochasticSimulation\Assignment2\Stochasticsim2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2320ED62-A158-4866-95FB-032933BEA3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,12 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000000000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,27 +120,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -197,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,27 +209,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,24 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,25 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,41 +445,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>158.42501617685971</v>
+        <v>158.4250161768597</v>
       </c>
       <c r="C2">
         <v>1001.734640295035</v>
       </c>
       <c r="D2">
-        <v>9.4656123899287312</v>
+        <v>9.465612389928731</v>
       </c>
       <c r="E2">
         <v>102.1522672512734</v>
       </c>
       <c r="F2">
-        <v>167.89062856678851</v>
+        <v>167.8906285667885</v>
       </c>
       <c r="G2">
         <v>1010.110418591228</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.89590433552308057</v>
+        <v>0.8959043355230806</v>
       </c>
       <c r="C3">
-        <v>96.279568491037935</v>
+        <v>96.27956849103794</v>
       </c>
       <c r="D3">
-        <v>9.4930991343325672</v>
+        <v>9.493099134332567</v>
       </c>
       <c r="E3">
         <v>101.2238301336407</v>
@@ -558,43 +491,43 @@
         <v>120.0102169027892</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.457912016976625E-3</v>
+        <v>0.001457912016976625</v>
       </c>
       <c r="C4">
-        <v>49.547575059579692</v>
+        <v>49.54757505957969</v>
       </c>
       <c r="D4">
-        <v>9.4925128571873945</v>
+        <v>9.492512857187394</v>
       </c>
       <c r="E4">
         <v>101.2238301336407</v>
       </c>
       <c r="F4">
-        <v>9.4939707692043704</v>
+        <v>9.49397076920437</v>
       </c>
       <c r="G4">
         <v>101.2238301336407</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>92.846873732550961</v>
+        <v>92.84687373255096</v>
       </c>
       <c r="C6">
-        <v>561.37579441990238</v>
+        <v>561.3757944199024</v>
       </c>
       <c r="D6">
         <v>9.5</v>
@@ -606,18 +539,18 @@
         <v>102.346873732551</v>
       </c>
       <c r="G6">
-        <v>570.87579441990238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>570.8757944199024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.38898111196744628</v>
+        <v>0.3889811119674463</v>
       </c>
       <c r="C7">
-        <v>19.238927847938609</v>
+        <v>19.23892784793861</v>
       </c>
       <c r="D7">
         <v>9.5</v>
@@ -626,18 +559,18 @@
         <v>9.5</v>
       </c>
       <c r="F7">
-        <v>9.8889811119674462</v>
+        <v>9.888981111967446</v>
       </c>
       <c r="G7">
-        <v>28.738927847938609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28.73892784793861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>5.6298788508662252E-4</v>
+        <v>0.0005629878850866225</v>
       </c>
       <c r="C8">
         <v>9.044288185890764</v>
@@ -649,79 +582,79 @@
         <v>9.5</v>
       </c>
       <c r="F8">
-        <v>9.5005629878850861</v>
+        <v>9.500562987885086</v>
       </c>
       <c r="G8">
         <v>18.54428818589076</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.86775707591947715</v>
+        <v>0.8677570759194771</v>
       </c>
       <c r="C9">
-        <v>59.493148323730573</v>
+        <v>59.49314832373057</v>
       </c>
       <c r="D9">
-        <v>2.0132627483119521</v>
+        <v>2.013262748311952</v>
       </c>
       <c r="E9">
-        <v>52.383039494178071</v>
+        <v>52.38303949417807</v>
       </c>
       <c r="F9">
-        <v>2.8810198242314291</v>
+        <v>2.881019824231429</v>
       </c>
       <c r="G9">
-        <v>61.092696922359963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61.09269692235996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1.7706306054019232E-2</v>
+        <v>0.01770630605401923</v>
       </c>
       <c r="C10">
-        <v>40.245156376622617</v>
+        <v>40.24515637662262</v>
       </c>
       <c r="D10">
-        <v>2.0125240080203768</v>
+        <v>2.012524008020377</v>
       </c>
       <c r="E10">
-        <v>52.383039494178071</v>
+        <v>52.38303949417807</v>
       </c>
       <c r="F10">
-        <v>2.0302303140743958</v>
+        <v>2.030230314074396</v>
       </c>
       <c r="G10">
-        <v>53.640007857253103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53.6400078572531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.0122701538134282</v>
+        <v>2.012270153813428</v>
       </c>
       <c r="E11">
-        <v>52.383039494178071</v>
+        <v>52.38303949417807</v>
       </c>
       <c r="F11">
-        <v>2.0122701538134282</v>
+        <v>2.012270153813428</v>
       </c>
       <c r="G11">
-        <v>52.383039494178071</v>
+        <v>52.38303949417807</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>mean_wait_times</t>
-  </si>
-  <si>
-    <t>max_wait_times</t>
-  </si>
-  <si>
-    <t>mean_serv_times</t>
-  </si>
-  <si>
-    <t>max_serv_times</t>
-  </si>
-  <si>
-    <t>mean_soj_times</t>
-  </si>
-  <si>
-    <t>max_soj_times</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+  <si>
+    <t>wait_times</t>
+  </si>
+  <si>
+    <t>mean_mean_w_times</t>
+  </si>
+  <si>
+    <t>stdev_mean_w_times</t>
+  </si>
+  <si>
+    <t>max_mean_w_times</t>
+  </si>
+  <si>
+    <t>min_mean_w_times</t>
   </si>
   <si>
     <t>MM1</t>
@@ -43,7 +40,7 @@
     <t>MM4</t>
   </si>
   <si>
-    <t>MM1_short_job_first</t>
+    <t>MM1_sjf</t>
   </si>
   <si>
     <t>MD1</t>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>MH4</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -419,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,220 +441,205 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>169.332123905112</v>
+      </c>
+      <c r="D2">
+        <v>76.05760730663295</v>
+      </c>
+      <c r="E2">
+        <v>638.5865193850125</v>
+      </c>
+      <c r="F2">
+        <v>91.78596466038114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>158.4250161768597</v>
-      </c>
-      <c r="C2">
-        <v>1001.734640295035</v>
-      </c>
-      <c r="D2">
-        <v>9.465612389928731</v>
-      </c>
-      <c r="E2">
-        <v>102.1522672512734</v>
-      </c>
-      <c r="F2">
-        <v>167.8906285667885</v>
-      </c>
-      <c r="G2">
-        <v>1010.110418591228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0.8696290214167032</v>
+      </c>
+      <c r="D3">
+        <v>0.06483308806734842</v>
+      </c>
+      <c r="E3">
+        <v>1.046003289928991</v>
+      </c>
+      <c r="F3">
+        <v>0.6900768514048069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0.8959043355230806</v>
-      </c>
-      <c r="C3">
-        <v>96.27956849103794</v>
-      </c>
-      <c r="D3">
-        <v>9.493099134332567</v>
-      </c>
-      <c r="E3">
-        <v>101.2238301336407</v>
-      </c>
-      <c r="F3">
-        <v>10.38900346985565</v>
-      </c>
-      <c r="G3">
-        <v>120.0102169027892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0.0009381703623389967</v>
+      </c>
+      <c r="D4">
+        <v>0.001321562391997601</v>
+      </c>
+      <c r="E4">
+        <v>0.006929756753933907</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0.001457912016976625</v>
-      </c>
-      <c r="C4">
-        <v>49.54757505957969</v>
-      </c>
-      <c r="D4">
-        <v>9.492512857187394</v>
-      </c>
-      <c r="E4">
-        <v>101.2238301336407</v>
-      </c>
-      <c r="F4">
-        <v>9.49397076920437</v>
-      </c>
-      <c r="G4">
-        <v>101.2238301336407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>6.799121510292583</v>
+      </c>
+      <c r="D5">
+        <v>0.1419803588097556</v>
+      </c>
+      <c r="E5">
+        <v>7.064521532827035</v>
+      </c>
+      <c r="F5">
+        <v>6.473775042505717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>91.88653235643113</v>
+      </c>
+      <c r="D6">
+        <v>26.64131754790062</v>
+      </c>
+      <c r="E6">
+        <v>207.8819019933131</v>
+      </c>
+      <c r="F6">
+        <v>56.27324941288278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>92.84687373255096</v>
-      </c>
-      <c r="C6">
-        <v>561.3757944199024</v>
-      </c>
-      <c r="D6">
-        <v>9.5</v>
-      </c>
-      <c r="E6">
-        <v>9.5</v>
-      </c>
-      <c r="F6">
-        <v>102.346873732551</v>
-      </c>
-      <c r="G6">
-        <v>570.8757944199024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0.3836153242064162</v>
+      </c>
+      <c r="D7">
+        <v>0.02099566313330634</v>
+      </c>
+      <c r="E7">
+        <v>0.4267607848886451</v>
+      </c>
+      <c r="F7">
+        <v>0.343262009490503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.3889811119674463</v>
-      </c>
-      <c r="C7">
-        <v>19.23892784793861</v>
-      </c>
-      <c r="D7">
-        <v>9.5</v>
-      </c>
-      <c r="E7">
-        <v>9.5</v>
-      </c>
-      <c r="F7">
-        <v>9.888981111967446</v>
-      </c>
-      <c r="G7">
-        <v>28.73892784793861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0.000300963388466115</v>
+      </c>
+      <c r="D8">
+        <v>0.0004190646983312325</v>
+      </c>
+      <c r="E8">
+        <v>0.002157742152287187</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.0005629878850866225</v>
-      </c>
-      <c r="C8">
-        <v>9.044288185890764</v>
-      </c>
-      <c r="D8">
-        <v>9.5</v>
-      </c>
-      <c r="E8">
-        <v>9.5</v>
-      </c>
-      <c r="F8">
-        <v>9.500562987885086</v>
-      </c>
-      <c r="G8">
-        <v>18.54428818589076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0.8739240710388436</v>
+      </c>
+      <c r="D9">
+        <v>0.05949390183639181</v>
+      </c>
+      <c r="E9">
+        <v>1.102824425821437</v>
+      </c>
+      <c r="F9">
+        <v>0.7455173135835238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0.8677570759194771</v>
-      </c>
-      <c r="C9">
-        <v>59.49314832373057</v>
-      </c>
-      <c r="D9">
-        <v>2.013262748311952</v>
-      </c>
-      <c r="E9">
-        <v>52.38303949417807</v>
-      </c>
-      <c r="F9">
-        <v>2.881019824231429</v>
-      </c>
-      <c r="G9">
-        <v>61.09269692235996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0.01887183108993455</v>
+      </c>
+      <c r="D10">
+        <v>0.00467468120694267</v>
+      </c>
+      <c r="E10">
+        <v>0.03343633995989107</v>
+      </c>
+      <c r="F10">
+        <v>0.009216484905143898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0.01770630605401923</v>
-      </c>
-      <c r="C10">
-        <v>40.24515637662262</v>
-      </c>
-      <c r="D10">
-        <v>2.012524008020377</v>
-      </c>
-      <c r="E10">
-        <v>52.38303949417807</v>
-      </c>
-      <c r="F10">
-        <v>2.030230314074396</v>
-      </c>
-      <c r="G10">
-        <v>53.6400078572531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.012270153813428</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>52.38303949417807</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2.012270153813428</v>
-      </c>
-      <c r="G11">
-        <v>52.38303949417807</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
-  <si>
-    <t>wait_times</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>mean_mean_w_times</t>
   </si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>MH4</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -419,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,208 +432,175 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>175.9389929736555</v>
+      </c>
+      <c r="C2">
+        <v>69.28322702488366</v>
+      </c>
+      <c r="D2">
+        <v>759.6408503170535</v>
+      </c>
+      <c r="E2">
+        <v>72.28502905828267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>169.332123905112</v>
-      </c>
-      <c r="D2">
-        <v>76.05760730663295</v>
-      </c>
-      <c r="E2">
-        <v>638.5865193850125</v>
-      </c>
-      <c r="F2">
-        <v>91.78596466038114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>86.36180110456425</v>
+      </c>
+      <c r="C3">
+        <v>33.54997093648411</v>
+      </c>
+      <c r="D3">
+        <v>424.3635771738062</v>
+      </c>
+      <c r="E3">
+        <v>39.86993752896216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>0.8696290214167032</v>
-      </c>
-      <c r="D3">
-        <v>0.06483308806734842</v>
-      </c>
-      <c r="E3">
-        <v>1.046003289928991</v>
-      </c>
-      <c r="F3">
-        <v>0.6900768514048069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>44.67255144694252</v>
+      </c>
+      <c r="C4">
+        <v>18.45206522059106</v>
+      </c>
+      <c r="D4">
+        <v>178.8264190531759</v>
+      </c>
+      <c r="E4">
+        <v>20.99934166609556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0.0009381703623389967</v>
-      </c>
-      <c r="D4">
-        <v>0.001321562391997601</v>
-      </c>
-      <c r="E4">
-        <v>0.006929756753933907</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>6.791938980565018</v>
+      </c>
+      <c r="C5">
+        <v>0.1576462568497492</v>
+      </c>
+      <c r="D5">
+        <v>7.314207161167491</v>
+      </c>
+      <c r="E5">
+        <v>6.296188767154875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>6.799121510292583</v>
-      </c>
-      <c r="D5">
-        <v>0.1419803588097556</v>
-      </c>
-      <c r="E5">
-        <v>7.064521532827035</v>
-      </c>
-      <c r="F5">
-        <v>6.473775042505717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>89.553367379376</v>
+      </c>
+      <c r="C6">
+        <v>24.24284687962213</v>
+      </c>
+      <c r="D6">
+        <v>213.2897043025446</v>
+      </c>
+      <c r="E6">
+        <v>46.89001132095594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>91.88653235643113</v>
-      </c>
-      <c r="D6">
-        <v>26.64131754790062</v>
-      </c>
-      <c r="E6">
-        <v>207.8819019933131</v>
-      </c>
-      <c r="F6">
-        <v>56.27324941288278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>43.78507365542842</v>
+      </c>
+      <c r="C7">
+        <v>12.33974486989418</v>
+      </c>
+      <c r="D7">
+        <v>128.9459036999428</v>
+      </c>
+      <c r="E7">
+        <v>22.48684506506646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>0.3836153242064162</v>
-      </c>
-      <c r="D7">
-        <v>0.02099566313330634</v>
-      </c>
-      <c r="E7">
-        <v>0.4267607848886451</v>
-      </c>
-      <c r="F7">
-        <v>0.343262009490503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>22.17030245869284</v>
+      </c>
+      <c r="C8">
+        <v>6.809871027075654</v>
+      </c>
+      <c r="D8">
+        <v>128.284566210827</v>
+      </c>
+      <c r="E8">
+        <v>11.61686436053448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>0.000300963388466115</v>
-      </c>
-      <c r="D8">
-        <v>0.0004190646983312325</v>
-      </c>
-      <c r="E8">
-        <v>0.002157742152287187</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>11.63639209499178</v>
+      </c>
+      <c r="C9">
+        <v>0.8153937840961121</v>
+      </c>
+      <c r="D9">
+        <v>14.55746352380886</v>
+      </c>
+      <c r="E9">
+        <v>8.90700105015619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>0.8739240710388436</v>
-      </c>
-      <c r="D9">
-        <v>0.05949390183639181</v>
-      </c>
-      <c r="E9">
-        <v>1.102824425821437</v>
-      </c>
-      <c r="F9">
-        <v>0.7455173135835238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>5.323049348278717</v>
+      </c>
+      <c r="C10">
+        <v>0.417516208388363</v>
+      </c>
+      <c r="D10">
+        <v>6.724471982781555</v>
+      </c>
+      <c r="E10">
+        <v>4.359578879296236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>0.01887183108993455</v>
-      </c>
-      <c r="D10">
-        <v>0.00467468120694267</v>
-      </c>
-      <c r="E10">
-        <v>0.03343633995989107</v>
-      </c>
-      <c r="F10">
-        <v>0.009216484905143898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="B11">
+        <v>2.297897426121828</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1936730490596214</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3.189877717798467</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>1.797046744949005</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -489,16 +489,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.791938980565018</v>
+        <v>48.75143002870815</v>
       </c>
       <c r="C5">
-        <v>0.1576462568497492</v>
+        <v>12.04469392959956</v>
       </c>
       <c r="D5">
-        <v>7.314207161167491</v>
+        <v>137.1436580329827</v>
       </c>
       <c r="E5">
-        <v>6.296188767154875</v>
+        <v>29.20199339049788</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -557,16 +557,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>11.63639209499178</v>
+        <v>29.90907341251862</v>
       </c>
       <c r="C9">
-        <v>0.8153937840961121</v>
+        <v>3.386773360390082</v>
       </c>
       <c r="D9">
-        <v>14.55746352380886</v>
+        <v>49.7802756411896</v>
       </c>
       <c r="E9">
-        <v>8.90700105015619</v>
+        <v>21.87641164560983</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -574,16 +574,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>5.323049348278717</v>
+        <v>14.24086643239333</v>
       </c>
       <c r="C10">
-        <v>0.417516208388363</v>
+        <v>1.697272107831033</v>
       </c>
       <c r="D10">
-        <v>6.724471982781555</v>
+        <v>22.82739358213339</v>
       </c>
       <c r="E10">
-        <v>4.359578879296236</v>
+        <v>10.24360655439539</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -591,16 +591,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2.297897426121828</v>
+        <v>6.641661013392492</v>
       </c>
       <c r="C11">
-        <v>0.1936730490596214</v>
+        <v>0.7992797372518875</v>
       </c>
       <c r="D11">
-        <v>3.189877717798467</v>
+        <v>10.27463504092395</v>
       </c>
       <c r="E11">
-        <v>1.797046744949005</v>
+        <v>4.584829424123095</v>
       </c>
     </row>
   </sheetData>
